--- a/Training/moving/warrior to mountain/2-split.xlsx
+++ b/Training/moving/warrior to mountain/2-split.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6430218289e9316d/Documents/GitHub/UHF-RFID/Training/moving/warrior to mountain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94C3DDAF-A084-415F-8053-AFD355662059}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EE6942D4-516C-4EBB-B60D-650598D077CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,6 +709,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warrior</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to Mountain RSSI: Run 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1400,10 +1423,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
+              <c:f>Sheet3!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-58</c:v>
                 </c:pt>
@@ -1799,6 +1822,234 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,10 +2503,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
+              <c:f>Sheet2!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-57</c:v>
                 </c:pt>
@@ -2672,6 +2923,15 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-56.985611510791365</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.81636887363345467</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3083,10 +3343,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
+              <c:f>Sheet1!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-56</c:v>
                 </c:pt>
@@ -3236,6 +3496,231 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,2634 +3729,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$C$1:$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712461320db93</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.650868530094</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.650868900462</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.650869641206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.650870289355</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.650871493053</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.650872326391</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.650873067127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.650874270832</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.650874918982</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.650875844905</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.650876215281</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.650876493055</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.650877233798</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.650877511573</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.65087834491</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.650878807872</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.650879363428</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.650879918983</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.650880567133</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.650881122689</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.650881770831</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.650882233793</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.650882974536</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.650883993054</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.650884456016</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.650885196759</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.650885474533</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.650886215277</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.650886585645</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.650887326388</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.650887881944</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.650888252312</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.650888807868</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.650889918979</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.650890659723</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.650891493053</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.650891770834</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.650892881946</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.65089315972</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.650893993057</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.650894918981</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.650895196763</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.650896400461</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.650896956016</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.650897881947</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.650898437503</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.650899548615</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.650900104163</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.650900844907</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.650901307868</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.65090177083</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.650902141206</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.650902974536</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.650903530091</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.650904270835</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.650905011571</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.650905752314</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.650906400464</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.650907326388</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.650907974537</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.650908993055</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.650909178243</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.650909641205</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.650910289354</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.650911215278</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.650911493052</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.650912048608</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.650912418983</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.650912881945</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.650913159719</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.650913715275</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.650914270831</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.650914733793</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.650915104168</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.650915752318</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.65091621528</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.650916956016</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.650917326391</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.650917974534</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.650919178239</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.650920196756</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.650920474538</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.650921122688</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.650921678243</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.650922141205</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.650922696761</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.650923252317</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.650923807872</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.650925381946</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.650925752314</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.650926215276</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.650926863425</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.650927418981</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.650928159725</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.650929270836</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.650929641204</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.650930752316</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.650931493059</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.650931956021</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.650932604163</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.650932881945</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.650933622688</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.650933900462</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.650934641206</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.650935104168</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.650935474536</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.650935937498</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.650936493053</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.650936770835</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.650937696759</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.650938067127</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.650938715276</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.650938993058</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.650939918982</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.650940381944</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.650940937499</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.650941400461</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.650941863423</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.650942418979</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.650942974535</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.650943437497</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.650943715278</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.650944270834</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.650944745372</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.650945578702</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.650946041664</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44277.650946504633</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44277.650947152775</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44277.650947337963</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44277.650947708331</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44277.650948356481</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44277.650949189818</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44277.650949467592</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44277.650950127318</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44277.650950960648</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44277.650951886571</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44277.650952268516</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44277.650953009259</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44277.650953472221</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44277.650954212964</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44277.650954490739</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44277.65095476852</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44277.650955509256</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44277.650955787038</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44277.650956435187</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44277.650956712961</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44277.650957453705</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44277.650958287035</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44277.650958935184</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44277.650959675928</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44277.650960324077</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44277.650961064814</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44277.650961805557</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44277.650962546293</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>44277.650963194443</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>44277.650964120374</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>44277.650964583336</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>44277.650964953704</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>44277.650965416666</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>44277.650965879628</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>44277.650966250003</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>44277.650966620371</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>44277.650966990739</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>44277.650967638889</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>44277.650968101851</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>44277.65096875</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>44277.650969212962</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>44277.65096958333</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>44277.650970138886</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>44277.650970694442</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>44277.650971064817</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>44277.650971805553</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>44277.65097263889</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>44277.65097347222</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>44277.65097412037</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44277.650975231481</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44277.650976157405</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44277.650976527781</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44277.650977638892</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>44277.65097884259</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>44277.650979027778</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>44277.650980138889</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>44277.650980787039</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>44277.65098189815</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>44277.650982175925</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>44277.650982916668</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>44277.650983564818</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>44277.650984675929</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>44277.650985509259</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>44277.650985879627</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>44277.650986435183</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>44277.650986990739</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>44277.650987175926</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>44277.650987638888</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>44277.650988287038</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>44277.650989027781</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>44277.650989027781</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>44277.650990046299</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>44277.650990416667</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>44277.650990787035</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>44277.650991435185</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>44277.650991805553</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>44277.650992453702</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>44277.650993657408</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>44277.650994027776</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>44277.650994675925</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>44277.650995046293</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>44277.650995694443</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
-                <c:pt idx="0">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712401320d4a0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.650869363424</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.650870011574</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.650870659723</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.650871215279</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.650872604165</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.650873715276</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.650873900464</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.650874548614</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.650875196756</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.650875752312</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.650876215281</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.650876678243</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.650877233798</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.65087769676</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.650878252316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.650878807872</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.650879085646</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.650879733796</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.650880289351</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.650880937501</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.65088241898</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.650882974536</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.650883993054</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.650884363429</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.650885011572</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.650885567127</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.650886030089</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.650886770833</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.650887326388</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.65088760417</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.6508884375</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.650889085649</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.650889733799</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.650890289355</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.650890937497</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.650891400466</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.650892048609</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.650892418984</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.650894456019</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.650894733793</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.650895659724</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.650896307867</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.650897141204</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.65089769676</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.650898900465</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.650900289351</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.650901122688</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.650901400462</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.65090177083</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.650902326386</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.650902881942</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.650903252317</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.650904826391</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.650906030096</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.650907974537</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.650908530093</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.650909918979</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.650910474535</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.650911122684</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.650911956021</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.650912418983</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.650912789351</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.650913252313</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.650913437501</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.650914178237</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.650914733793</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.650915381942</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.650915659724</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.650916030092</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.650916863429</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.650918622683</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.650918993058</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.65092010417</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.650922048611</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.650922511573</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.650924270834</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.650928159725</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.650928622686</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.650928900461</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.650930104166</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.650931215278</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.650931493059</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.650931770833</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.650932604163</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.650933067132</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.650933622688</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.65093408565</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.650934641206</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.650935011574</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.65093556713</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.650935937498</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.650936493053</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.650937141203</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.650938715276</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.650939270832</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.650939826388</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.650940104169</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.650940937499</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.650941400461</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.650941863423</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.650942418979</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.65094269676</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.650947337963</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.650947986112</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.650948541668</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.650949097224</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.650950219904</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.650951145835</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.650951979165</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.650959212966</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.650959861108</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.650960324077</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.650962453707</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.650962824075</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.650963935186</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.650967546295</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.650968657406</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.650969120368</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.650969675924</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.650970046299</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.650970416667</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.650971064817</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.650972268515</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.650973564814</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.650974675926</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.650975046294</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44277.650975787037</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44277.650976805555</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44277.650977731479</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44277.650978750004</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44277.650979305552</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44277.650980694445</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44277.650982453706</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44277.650983194442</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44277.650983935186</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44277.650984398148</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44277.650993009258</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44277.65099347222</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44277.650995416669</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
-                <c:pt idx="0">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712171320c120</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.650868344906</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.65086908565</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.650869826386</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.650870659723</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.650871215279</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.650871863429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.650872696759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.650873437502</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.650881863425</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.650883252318</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.650883622686</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.650884641203</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.650892881946</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.650893344908</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.650893715276</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.650894456019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.650895474537</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.650896030093</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.650896770836</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.650897418978</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.650897974534</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.65089853009</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.650899270833</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.650900289351</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.650900567132</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.65090390046</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.650904085647</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.650905289353</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.650905844908</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.650906678238</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.650907326388</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.650908530093</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.650916585648</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.650918067127</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.650918344909</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.650919641201</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.650919826388</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.650920659726</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.650921585649</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.650922881941</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.650923622685</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.650924363428</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.65092482639</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.650925381946</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.650925752314</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.650926030095</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.650926585651</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.650927604169</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.650927881943</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.650928437499</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.650929085648</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.650929918978</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.650930752316</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.650937141203</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.650937789353</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.650938344908</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.650942974535</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.65094334491</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.650943807872</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.650944270834</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.650944930552</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.650945300928</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.650946134258</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.650946504633</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.650946782407</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.650950868054</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.650951608797</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.650952453703</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.650953009259</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.650953750002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.650954212964</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.650955509256</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.650956435187</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.650956990743</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.650957638885</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.650958287035</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.650958935184</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.650959583334</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.650960509258</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.650960879633</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.650961435182</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.650961805557</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.650962175925</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.650963009262</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.650963564818</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.650964583336</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.650968101851</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.650970509261</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.650971249997</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.650972175928</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.650972453703</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.650973009258</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.65097412037</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.650974675926</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.650975416669</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.650975972225</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.650977083336</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.65097800926</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.650978379628</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.65097949074</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.650979861108</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.650981250001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.650981712963</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.650982175925</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.650982916668</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.650983842592</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.650984398148</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.650984953703</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.650985509259</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.650985879627</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.650986435183</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.650986898145</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.65098791667</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.650989583337</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.650989953705</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.650990416667</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.650990694441</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.650991435185</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.650991898146</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.650992175928</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.650993009258</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.650993287039</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.650994120369</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.650994490738</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.650995509262</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4DD0-4B4D-9BBF-9D10164AD156}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5952,6 +3809,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-50"/>
+          <c:min val="-65"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6011,6 +3870,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6048,6 +3911,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warrior to Mountain Phase: Run 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6076,10 +3957,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
+              <c:f>Sheet4!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="1048576"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6490,10 +4371,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$50</c:f>
+              <c:f>Sheet1!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>174</c:v>
                 </c:pt>
@@ -6643,6 +4524,231 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6655,68 +4761,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD01-4F5C-8056-3BA37DC19ECF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet3!$B$1</c:f>
@@ -7387,10 +5433,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$1:$D$132</c:f>
+              <c:f>Sheet3!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>174</c:v>
                 </c:pt>
@@ -7786,6 +5832,234 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7799,7 +6073,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$B$1</c:f>
@@ -8263,10 +6537,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$D$198</c:f>
+              <c:f>Sheet2!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -8683,6 +6957,15 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>171.9496402877698</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.4504472854266774</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8771,6 +7054,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="160"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8830,6 +7115,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8859,14 +7148,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90874</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>203047</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8893,16 +7182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9229,11 +7518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D501" sqref="A3:D501"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AE51" sqref="AE51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9255,7 +7543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44277.650868344906</v>
       </c>
@@ -9297,7 +7585,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44277.65086908565</v>
       </c>
@@ -9311,7 +7599,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44277.650869363424</v>
       </c>
@@ -9325,7 +7613,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44277.650869363424</v>
       </c>
@@ -9349,7 +7637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44277.650869826386</v>
       </c>
@@ -9363,7 +7651,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44277.650870011574</v>
       </c>
@@ -9391,7 +7679,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44277.650870659723</v>
       </c>
@@ -9405,7 +7693,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44277.650870659723</v>
       </c>
@@ -9419,7 +7707,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44277.650871215279</v>
       </c>
@@ -9433,7 +7721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44277.650871215279</v>
       </c>
@@ -9461,7 +7749,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44277.650871863429</v>
       </c>
@@ -9489,7 +7777,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44277.650872604165</v>
       </c>
@@ -9503,7 +7791,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44277.650872696759</v>
       </c>
@@ -9531,7 +7819,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44277.650873437502</v>
       </c>
@@ -9545,7 +7833,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44277.650873715276</v>
       </c>
@@ -9559,7 +7847,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44277.650873900464</v>
       </c>
@@ -9587,7 +7875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44277.650874548614</v>
       </c>
@@ -9615,7 +7903,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44277.650875196756</v>
       </c>
@@ -9629,7 +7917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44277.650875752312</v>
       </c>
@@ -9657,7 +7945,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44277.650876215281</v>
       </c>
@@ -9699,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44277.650876678243</v>
       </c>
@@ -9727,7 +8015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44277.650877233798</v>
       </c>
@@ -9755,7 +8043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>44277.65087769676</v>
       </c>
@@ -9769,7 +8057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44277.650878252316</v>
       </c>
@@ -9811,7 +8099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44277.650878807872</v>
       </c>
@@ -9825,7 +8113,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44277.650879085646</v>
       </c>
@@ -9853,7 +8141,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44277.650879733796</v>
       </c>
@@ -9881,7 +8169,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44277.650880289351</v>
       </c>
@@ -9909,7 +8197,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44277.650880937501</v>
       </c>
@@ -9923,7 +8211,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>44277.650880937501</v>
       </c>
@@ -9961,7 +8249,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44277.650881863425</v>
       </c>
@@ -9975,7 +8263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>44277.650882048612</v>
       </c>
@@ -9999,7 +8287,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44277.65088241898</v>
       </c>
@@ -10013,7 +8301,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44277.650882974536</v>
       </c>
@@ -10041,7 +8329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44277.650883252318</v>
       </c>
@@ -10055,7 +8343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>44277.650883622686</v>
       </c>
@@ -10083,7 +8371,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44277.650883993054</v>
       </c>
@@ -10097,7 +8385,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>44277.650884363429</v>
       </c>
@@ -10125,7 +8413,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44277.650884641203</v>
       </c>
@@ -10139,7 +8427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>44277.650885011572</v>
       </c>
@@ -10181,7 +8469,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>44277.650885567127</v>
       </c>
@@ -10195,7 +8483,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44277.650886030089</v>
       </c>
@@ -10237,7 +8525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44277.650886770833</v>
       </c>
@@ -10251,7 +8539,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>44277.650887326388</v>
       </c>
@@ -10279,7 +8567,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>44277.65088760417</v>
       </c>
@@ -10321,7 +8609,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>44277.6508884375</v>
       </c>
@@ -10349,7 +8637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44277.650889085649</v>
       </c>
@@ -10363,7 +8651,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44277.650889733799</v>
       </c>
@@ -10391,7 +8679,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44277.650890011573</v>
       </c>
@@ -10401,7 +8689,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44277.650890289355</v>
       </c>
@@ -10429,7 +8717,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>44277.650890937497</v>
       </c>
@@ -10443,7 +8731,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44277.650891400466</v>
       </c>
@@ -10485,7 +8773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44277.650892048609</v>
       </c>
@@ -10499,7 +8787,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44277.650892418984</v>
       </c>
@@ -10513,7 +8801,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>44277.650892418984</v>
       </c>
@@ -10523,7 +8811,7 @@
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>44277.650892881946</v>
       </c>
@@ -10565,7 +8853,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>44277.650893344908</v>
       </c>
@@ -10579,7 +8867,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>44277.650893715276</v>
       </c>
@@ -10607,7 +8895,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>44277.650894456019</v>
       </c>
@@ -10621,7 +8909,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>44277.650894456019</v>
       </c>
@@ -10635,7 +8923,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>44277.650894733793</v>
       </c>
@@ -10677,7 +8965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>44277.650895474537</v>
       </c>
@@ -10691,7 +8979,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>44277.650895659724</v>
       </c>
@@ -10705,7 +8993,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>44277.650896030093</v>
       </c>
@@ -10719,7 +9007,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>44277.650896307867</v>
       </c>
@@ -10747,7 +9035,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>44277.650896770836</v>
       </c>
@@ -10775,7 +9063,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>44277.650897141204</v>
       </c>
@@ -10789,7 +9077,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>44277.650897418978</v>
       </c>
@@ -10803,7 +9091,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>44277.65089769676</v>
       </c>
@@ -10831,7 +9119,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>44277.650897974534</v>
       </c>
@@ -10859,7 +9147,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>44277.65089853009</v>
       </c>
@@ -10873,7 +9161,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>44277.650898900465</v>
       </c>
@@ -10887,7 +9175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>44277.650899270833</v>
       </c>
@@ -10929,7 +9217,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>44277.650900289351</v>
       </c>
@@ -10943,7 +9231,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>44277.650900289351</v>
       </c>
@@ -10957,7 +9245,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44277.650900567132</v>
       </c>
@@ -10985,7 +9273,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>44277.650901122688</v>
       </c>
@@ -11013,7 +9301,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>44277.650901400462</v>
       </c>
@@ -11041,7 +9329,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>44277.65090177083</v>
       </c>
@@ -11069,7 +9357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>44277.650902326386</v>
       </c>
@@ -11083,7 +9371,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>44277.650902881942</v>
       </c>
@@ -11111,7 +9399,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>44277.650903252317</v>
       </c>
@@ -11139,7 +9427,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>44277.65090390046</v>
       </c>
@@ -11153,7 +9441,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>44277.65090390046</v>
       </c>
@@ -11163,7 +9451,7 @@
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>44277.650904085647</v>
       </c>
@@ -11191,7 +9479,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>44277.650904826391</v>
       </c>
@@ -11219,7 +9507,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>44277.650905289353</v>
       </c>
@@ -11247,7 +9535,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>44277.650905844908</v>
       </c>
@@ -11261,7 +9549,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>44277.650906030096</v>
       </c>
@@ -11289,7 +9577,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44277.650906678238</v>
       </c>
@@ -11317,7 +9605,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44277.650907326388</v>
       </c>
@@ -11331,7 +9619,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44277.650907604169</v>
       </c>
@@ -11341,7 +9629,7 @@
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>44277.650907974537</v>
       </c>
@@ -11369,7 +9657,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44277.650908530093</v>
       </c>
@@ -11383,7 +9671,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>44277.650908530093</v>
       </c>
@@ -11397,7 +9685,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>44277.650908807867</v>
       </c>
@@ -11449,7 +9737,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>44277.650909918979</v>
       </c>
@@ -11477,7 +9765,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44277.650910474535</v>
       </c>
@@ -11491,7 +9779,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>44277.650911122684</v>
       </c>
@@ -11533,7 +9821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>44277.650911956021</v>
       </c>
@@ -11561,7 +9849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>44277.650912418983</v>
       </c>
@@ -11589,7 +9877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44277.650912789351</v>
       </c>
@@ -11631,7 +9919,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>44277.650913252313</v>
       </c>
@@ -11645,7 +9933,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>44277.650913437501</v>
       </c>
@@ -11673,7 +9961,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>44277.650914178237</v>
       </c>
@@ -11715,7 +10003,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>44277.650914733793</v>
       </c>
@@ -11743,7 +10031,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>44277.650915381942</v>
       </c>
@@ -11757,7 +10045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>44277.650915381942</v>
       </c>
@@ -11767,7 +10055,7 @@
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>44277.650915659724</v>
       </c>
@@ -11795,7 +10083,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>44277.650916030092</v>
       </c>
@@ -11823,7 +10111,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>44277.650916585648</v>
       </c>
@@ -11837,7 +10125,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>44277.650916863429</v>
       </c>
@@ -11893,7 +10181,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>44277.650918067127</v>
       </c>
@@ -11907,7 +10195,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>44277.650918159721</v>
       </c>
@@ -11917,7 +10205,7 @@
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>44277.650918344909</v>
       </c>
@@ -11931,7 +10219,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>44277.650918622683</v>
       </c>
@@ -11945,7 +10233,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>44277.650918993058</v>
       </c>
@@ -11973,7 +10261,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>44277.650919641201</v>
       </c>
@@ -11987,7 +10275,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>44277.650919826388</v>
       </c>
@@ -12001,7 +10289,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>44277.65092010417</v>
       </c>
@@ -12043,7 +10331,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>44277.650920659726</v>
       </c>
@@ -12071,7 +10359,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>44277.650921585649</v>
       </c>
@@ -12099,7 +10387,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>44277.650922048611</v>
       </c>
@@ -12127,7 +10415,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>44277.650922511573</v>
       </c>
@@ -12155,7 +10443,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>44277.650922881941</v>
       </c>
@@ -12183,7 +10471,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>44277.650923622685</v>
       </c>
@@ -12211,7 +10499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>44277.650924270834</v>
       </c>
@@ -12225,7 +10513,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>44277.650924363428</v>
       </c>
@@ -12239,7 +10527,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>44277.650924548609</v>
       </c>
@@ -12249,7 +10537,7 @@
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>44277.65092482639</v>
       </c>
@@ -12277,7 +10565,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>44277.650925381946</v>
       </c>
@@ -12305,7 +10593,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>44277.650925752314</v>
       </c>
@@ -12319,7 +10607,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>44277.650926030095</v>
       </c>
@@ -12347,7 +10635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>44277.650926585651</v>
       </c>
@@ -12375,7 +10663,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>44277.650927326387</v>
       </c>
@@ -12399,7 +10687,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>44277.650927604169</v>
       </c>
@@ -12413,7 +10701,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>44277.650927881943</v>
       </c>
@@ -12423,7 +10711,7 @@
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>44277.650927881943</v>
       </c>
@@ -12437,7 +10725,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>44277.650928159725</v>
       </c>
@@ -12465,7 +10753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>44277.650928437499</v>
       </c>
@@ -12479,7 +10767,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>44277.650928622686</v>
       </c>
@@ -12493,7 +10781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>44277.650928900461</v>
       </c>
@@ -12507,7 +10795,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>44277.650929085648</v>
       </c>
@@ -12549,7 +10837,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>44277.650929918978</v>
       </c>
@@ -12563,7 +10851,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>44277.650930104166</v>
       </c>
@@ -12577,7 +10865,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>44277.650930752316</v>
       </c>
@@ -12605,7 +10893,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>44277.650930844909</v>
       </c>
@@ -12615,7 +10903,7 @@
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>44277.650931215278</v>
       </c>
@@ -12643,7 +10931,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>44277.650931493059</v>
       </c>
@@ -12657,7 +10945,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>44277.650931770833</v>
       </c>
@@ -12699,7 +10987,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>44277.650932604163</v>
       </c>
@@ -12727,7 +11015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>44277.650933067132</v>
       </c>
@@ -12741,7 +11029,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>44277.650933622688</v>
       </c>
@@ -12783,7 +11071,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>44277.65093408565</v>
       </c>
@@ -12811,7 +11099,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>44277.650934641206</v>
       </c>
@@ -12825,7 +11113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>44277.650935011574</v>
       </c>
@@ -12867,7 +11155,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>44277.65093556713</v>
       </c>
@@ -12881,7 +11169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>44277.650935937498</v>
       </c>
@@ -12909,7 +11197,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>44277.650936215279</v>
       </c>
@@ -12933,7 +11221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>44277.650936493053</v>
       </c>
@@ -12961,7 +11249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>44277.650937141203</v>
       </c>
@@ -12975,7 +11263,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>44277.650937141203</v>
       </c>
@@ -13003,7 +11291,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>44277.650937789353</v>
       </c>
@@ -13017,7 +11305,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>44277.65093797454</v>
       </c>
@@ -13041,7 +11329,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>44277.650938344908</v>
       </c>
@@ -13055,7 +11343,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>44277.650938344908</v>
       </c>
@@ -13065,7 +11353,7 @@
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
     </row>
-    <row r="279" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>44277.650938715276</v>
       </c>
@@ -13107,7 +11395,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>44277.650939270832</v>
       </c>
@@ -13121,7 +11409,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>44277.650939826388</v>
       </c>
@@ -13149,7 +11437,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>44277.650940104169</v>
       </c>
@@ -13191,7 +11479,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>44277.650940937499</v>
       </c>
@@ -13205,7 +11493,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>44277.650941400461</v>
       </c>
@@ -13233,7 +11521,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>44277.650941863423</v>
       </c>
@@ -13261,7 +11549,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>44277.650942418979</v>
       </c>
@@ -13289,7 +11577,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>44277.65094269676</v>
       </c>
@@ -13303,7 +11591,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>44277.650942974535</v>
       </c>
@@ -13331,7 +11619,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>44277.65094334491</v>
       </c>
@@ -13373,7 +11661,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>44277.650943807872</v>
       </c>
@@ -13387,7 +11675,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>44277.650944270834</v>
       </c>
@@ -13429,7 +11717,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>44277.650944930552</v>
       </c>
@@ -13443,7 +11731,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>44277.650945300928</v>
       </c>
@@ -13485,7 +11773,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>44277.650946134258</v>
       </c>
@@ -13499,7 +11787,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>44277.650946504633</v>
       </c>
@@ -13527,7 +11815,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>44277.650946782407</v>
       </c>
@@ -13569,7 +11857,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>44277.650947337963</v>
       </c>
@@ -13597,7 +11885,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>44277.650947986112</v>
       </c>
@@ -13625,7 +11913,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>44277.650948541668</v>
       </c>
@@ -13639,7 +11927,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>44277.650949097224</v>
       </c>
@@ -13695,7 +11983,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>44277.650950219904</v>
       </c>
@@ -13705,7 +11993,7 @@
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
     </row>
-    <row r="325" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>44277.650950219904</v>
       </c>
@@ -13719,7 +12007,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>44277.650950405092</v>
       </c>
@@ -13729,7 +12017,7 @@
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
     </row>
-    <row r="327" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>44277.650950868054</v>
       </c>
@@ -13757,7 +12045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>44277.650951145835</v>
       </c>
@@ -13771,7 +12059,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>44277.650951608797</v>
       </c>
@@ -13799,7 +12087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>44277.650951979165</v>
       </c>
@@ -13827,7 +12115,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>44277.650952453703</v>
       </c>
@@ -13855,7 +12143,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>44277.650953009259</v>
       </c>
@@ -13883,7 +12171,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>44277.650953750002</v>
       </c>
@@ -13897,7 +12185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>44277.650954212964</v>
       </c>
@@ -13953,7 +12241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>44277.650955509256</v>
       </c>
@@ -13995,7 +12283,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>44277.650956435187</v>
       </c>
@@ -14037,7 +12325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>44277.650956990743</v>
       </c>
@@ -14065,7 +12353,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>44277.650957638885</v>
       </c>
@@ -14079,7 +12367,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>44277.650958287035</v>
       </c>
@@ -14107,7 +12395,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>44277.650958564816</v>
       </c>
@@ -14117,7 +12405,7 @@
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
     </row>
-    <row r="355" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>44277.650958935184</v>
       </c>
@@ -14145,7 +12433,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>44277.650959212966</v>
       </c>
@@ -14159,7 +12447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>44277.650959583334</v>
       </c>
@@ -14187,7 +12475,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>44277.650959861108</v>
       </c>
@@ -14201,7 +12489,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>44277.650960324077</v>
       </c>
@@ -14229,7 +12517,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>44277.650960509258</v>
       </c>
@@ -14243,7 +12531,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>44277.650960879633</v>
       </c>
@@ -14271,7 +12559,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>44277.650961435182</v>
       </c>
@@ -14285,7 +12573,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>44277.650961435182</v>
       </c>
@@ -14295,7 +12583,7 @@
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
     </row>
-    <row r="368" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>44277.650961805557</v>
       </c>
@@ -14323,7 +12611,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>44277.650962175925</v>
       </c>
@@ -14337,7 +12625,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>44277.650962453707</v>
       </c>
@@ -14365,7 +12653,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>44277.650962824075</v>
       </c>
@@ -14379,7 +12667,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>44277.650963009262</v>
       </c>
@@ -14407,7 +12695,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>44277.650963564818</v>
       </c>
@@ -14421,7 +12709,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>44277.650963935186</v>
       </c>
@@ -14463,7 +12751,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>44277.650964583336</v>
       </c>
@@ -14561,7 +12849,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>44277.650967546295</v>
       </c>
@@ -14589,7 +12877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>44277.650968101851</v>
       </c>
@@ -14617,7 +12905,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>44277.650968379632</v>
       </c>
@@ -14627,7 +12915,7 @@
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
     </row>
-    <row r="392" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>44277.650968657406</v>
       </c>
@@ -14655,7 +12943,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>44277.650969120368</v>
       </c>
@@ -14697,7 +12985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>44277.650969675924</v>
       </c>
@@ -14711,7 +12999,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>44277.650970046299</v>
       </c>
@@ -14739,7 +13027,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>44277.650970416667</v>
       </c>
@@ -14753,7 +13041,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>44277.650970509261</v>
       </c>
@@ -14781,7 +13069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>44277.650971064817</v>
       </c>
@@ -14809,7 +13097,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>44277.650971249997</v>
       </c>
@@ -14837,7 +13125,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>44277.650972175928</v>
       </c>
@@ -14851,7 +13139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>44277.650972268515</v>
       </c>
@@ -14865,7 +13153,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>44277.650972453703</v>
       </c>
@@ -14893,7 +13181,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>44277.650972731484</v>
       </c>
@@ -14903,7 +13191,7 @@
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
     </row>
-    <row r="412" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>44277.650973009258</v>
       </c>
@@ -14931,7 +13219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>44277.650973564814</v>
       </c>
@@ -14945,7 +13233,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>44277.65097412037</v>
       </c>
@@ -14973,7 +13261,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>44277.650974398151</v>
       </c>
@@ -14983,7 +13271,7 @@
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
     </row>
-    <row r="418" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>44277.650974675926</v>
       </c>
@@ -14997,7 +13285,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>44277.650974675926</v>
       </c>
@@ -15011,7 +13299,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>44277.650975046294</v>
       </c>
@@ -15039,7 +13327,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>44277.650975416669</v>
       </c>
@@ -15053,7 +13341,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>44277.650975787037</v>
       </c>
@@ -15067,7 +13355,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>44277.650975972225</v>
       </c>
@@ -15109,7 +13397,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>44277.650976805555</v>
       </c>
@@ -15123,7 +13411,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>44277.650977083336</v>
       </c>
@@ -15151,7 +13439,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>44277.650977731479</v>
       </c>
@@ -15165,7 +13453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>44277.650977824072</v>
       </c>
@@ -15175,7 +13463,7 @@
       <c r="C431" s="6"/>
       <c r="D431" s="6"/>
     </row>
-    <row r="432" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>44277.65097800926</v>
       </c>
@@ -15189,7 +13477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>44277.650978379628</v>
       </c>
@@ -15203,7 +13491,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>44277.650978750004</v>
       </c>
@@ -15245,7 +13533,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>44277.650979305552</v>
       </c>
@@ -15259,7 +13547,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>44277.65097949074</v>
       </c>
@@ -15273,7 +13561,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>44277.650979861108</v>
       </c>
@@ -15301,7 +13589,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>44277.650980694445</v>
       </c>
@@ -15329,7 +13617,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>44277.650981157407</v>
       </c>
@@ -15339,7 +13627,7 @@
       <c r="C443" s="6"/>
       <c r="D443" s="6"/>
     </row>
-    <row r="444" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>44277.650981250001</v>
       </c>
@@ -15353,7 +13641,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>44277.650981712963</v>
       </c>
@@ -15381,7 +13669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>44277.650982175925</v>
       </c>
@@ -15409,7 +13697,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>44277.650982453706</v>
       </c>
@@ -15423,7 +13711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>44277.650982916668</v>
       </c>
@@ -15451,7 +13739,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>44277.650983194442</v>
       </c>
@@ -15479,7 +13767,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>44277.650983842592</v>
       </c>
@@ -15493,7 +13781,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>44277.650983935186</v>
       </c>
@@ -15507,7 +13795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>44277.650984398148</v>
       </c>
@@ -15521,7 +13809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>44277.650984398148</v>
       </c>
@@ -15535,7 +13823,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>44277.650984490741</v>
       </c>
@@ -15559,7 +13847,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>44277.650984953703</v>
       </c>
@@ -15587,7 +13875,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>44277.650985509259</v>
       </c>
@@ -15601,7 +13889,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>44277.650985879627</v>
       </c>
@@ -15629,7 +13917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>44277.650986435183</v>
       </c>
@@ -15657,7 +13945,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>44277.650986898145</v>
       </c>
@@ -15713,7 +14001,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>44277.65098791667</v>
       </c>
@@ -15769,7 +14057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>44277.650989490743</v>
       </c>
@@ -15779,7 +14067,7 @@
       <c r="C475" s="6"/>
       <c r="D475" s="6"/>
     </row>
-    <row r="476" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>44277.650989583337</v>
       </c>
@@ -15793,7 +14081,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>44277.650989953705</v>
       </c>
@@ -15835,7 +14123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>44277.650990416667</v>
       </c>
@@ -15849,7 +14137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>44277.650990694441</v>
       </c>
@@ -15877,7 +14165,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>44277.650991435185</v>
       </c>
@@ -15919,7 +14207,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>44277.650991898146</v>
       </c>
@@ -15933,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>44277.650992175928</v>
       </c>
@@ -15961,7 +14249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>44277.650993009258</v>
       </c>
@@ -15975,7 +14263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>44277.650993009258</v>
       </c>
@@ -15989,7 +14277,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>44277.650993287039</v>
       </c>
@@ -16003,7 +14291,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>44277.65099347222</v>
       </c>
@@ -16045,7 +14333,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>44277.650994120369</v>
       </c>
@@ -16059,7 +14347,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>44277.650994490738</v>
       </c>
@@ -16101,7 +14389,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>44277.650995416669</v>
       </c>
@@ -16115,7 +14403,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>44277.650995509262</v>
       </c>
@@ -16144,18 +14432,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="e2001d8712461320db93"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{9D4B843C-7F14-45B3-BC3E-520DB79CAF21}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{5EBA12B4-A683-41D3-BB90-193F2D415EEF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{28E11567-0CA7-4F53-9C24-270753CB2D71}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{DCF3E8D9-549F-4DBA-84FC-DDBF403E4902}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{7EF0BFCE-8D6C-4594-B777-E82E4165D76C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{F670B2C4-4BE3-4512-BEFC-F22564073617}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{3F89783B-8CEE-4A8C-A3B4-3F39162022AA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{32B44C04-ECB8-42F9-9923-5C09C32809F5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16164,105 +14446,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC26750B-BD47-411C-A0C4-877562E69E36}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D77" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F1" t="e">
+        <f>AVERAGE(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1" t="e">
+        <f>AVERAGE(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F2" t="e">
+        <f>STDEV(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>STDEV(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>COUNT(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNT(D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -16599,10 +14905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D211" sqref="A209:D211"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19556,10 +17862,10 @@
       <c r="D210" s="6"/>
     </row>
     <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
     </row>
     <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
@@ -19958,17 +18264,101 @@
       <c r="D277" s="6"/>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A278" s="7"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
+      <c r="A278" s="4"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A212:A277 A1:A207 A209:A210" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B212:B277 B1:B207 B209:B210" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C212:C277 C1:C207 C209:C210" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D212:D277 D1:D207 D209:D210" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A207 A209:A292" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B207 B209:B292" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C207 C209:C292" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D207 D209:D292" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19978,7 +18368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection sqref="A1:D139"/>
     </sheetView>
   </sheetViews>
@@ -22351,10 +20741,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24139,12 +22529,138 @@
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
     </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A126" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B126" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C126" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D126" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A147" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B147" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C147" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D147" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
